--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -318,16 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -335,6 +329,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -646,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +673,7 @@
     <col min="18" max="18" width="65.85546875" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5703125" customWidth="1"/>
+    <col min="21" max="21" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -681,38 +682,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -845,129 +846,129 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="B8" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="T8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="U8" s="3" t="s">
+      <c r="S8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="T8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -982,7 +983,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D38">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -998,24 +999,27 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="90.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1028,7 +1032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C4" sqref="A4:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1068,19 +1074,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
     </row>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -318,15 +318,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +333,12 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,38 +685,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -780,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -846,29 +849,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -936,14 +939,14 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44196</v>
+      <c r="A8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44286</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -962,13 +965,13 @@
       <c r="R8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="T8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="U8" s="5" t="s">
+      <c r="S8" s="7">
+        <v>44298</v>
+      </c>
+      <c r="T8" s="7">
+        <v>44298</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -983,7 +986,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1004,22 +1007,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C4" sqref="A4:XFD12"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,19 +1077,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>71</v>
       </c>
     </row>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -943,10 +943,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="7">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="7">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -966,10 +966,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="7">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="T8" s="7">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>73</v>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,10 +943,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="7">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="7">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -966,10 +966,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="7">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="T8" s="7">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>73</v>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,10 +943,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="7">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="7">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -966,10 +966,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="7">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="T8" s="7">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>73</v>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -404,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,13 +935,13 @@
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="7">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="7">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -966,10 +961,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="7">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="T8" s="7">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>73</v>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -241,7 +241,7 @@
     <t>Secretaria Académica (UPP)</t>
   </si>
   <si>
-    <t>Para el periodo reportado no se han financiado Estudios con recursos públicos</t>
+    <t xml:space="preserve">Para el periodo reportado no se han financiado Estudios con recursos públicos. </t>
   </si>
 </sst>
 </file>
@@ -261,11 +261,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -286,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,11 +311,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -339,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +713,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -707,11 +724,11 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -938,10 +955,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="7">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="7">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -961,10 +978,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="7">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="T8" s="7">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>73</v>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
     <t>Denominación de la persona física o moral, en su caso</t>
   </si>
   <si>
-    <t>Secretaria Académica (UPP)</t>
+    <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
   </si>
   <si>
     <t xml:space="preserve">Para el periodo reportado no se han financiado Estudios con recursos públicos. </t>
@@ -288,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,51 +311,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,24 +652,24 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="7" max="7" width="41.85546875" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="59" customWidth="1"/>
-    <col min="15" max="15" width="48.28515625" customWidth="1"/>
-    <col min="16" max="16" width="53.140625" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" customWidth="1"/>
-    <col min="18" max="18" width="65.85546875" customWidth="1"/>
+    <col min="14" max="14" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.28515625" customWidth="1"/>
+    <col min="21" max="21" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -697,38 +678,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -861,129 +842,129 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="7">
-        <v>44652</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44742</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>44743</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44834</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="7">
-        <v>44753</v>
-      </c>
-      <c r="T8" s="7">
-        <v>44753</v>
-      </c>
-      <c r="U8" s="4" t="s">
+      <c r="S8" s="4">
+        <v>44844</v>
+      </c>
+      <c r="T8" s="4">
+        <v>44844</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1003,7 +984,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1011,30 +992,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="90.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1047,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,19 +1069,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
     </row>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45354360-93D8-46E4-9364-D82DBEB1076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -247,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +436,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,11 +680,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,10 +976,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -959,10 +999,10 @@
         <v>72</v>
       </c>
       <c r="S8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="T8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>73</v>
@@ -979,7 +1019,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -989,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1024,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45354360-93D8-46E4-9364-D82DBEB1076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -247,13 +241,13 @@
     <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">Para el periodo reportado no se han financiado Estudios con recursos públicos. </t>
+    <t>Para el periodo reportado no se han financiado estudios con recursos públicos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,13 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -336,7 +333,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -403,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,26 +433,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,23 +468,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,11 +643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +672,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="35.7109375" customWidth="1"/>
+    <col min="21" max="21" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -718,38 +681,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -882,29 +845,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -971,42 +934,45 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
+    <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="T8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="U8" s="5" t="s">
+      <c r="S8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="T8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1019,22 +985,19 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1064,12 +1027,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -315,16 +315,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -644,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,38 +678,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -845,29 +842,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -935,44 +932,41 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>2023</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>44927</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>45016</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>45026</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>45026</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -985,7 +979,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1030,7 +1024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD94"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f41UPPachuca.xlsx
+++ b/xlsx/a69_f41UPPachuca.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D1FC45-F47E-4329-9E4E-8749E77B2CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
     <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
     <sheet name="Tabla_379116" sheetId="3" r:id="rId3"/>
+    <sheet name="Hidden_1_Tabla_379116" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Hidden_1_Tabla_3791165">Hidden_1_Tabla_379116!$A$1:$A$2</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>45768</t>
   </si>
@@ -162,7 +170,7 @@
     <t>Objeto del estudio</t>
   </si>
   <si>
-    <t>Autor(es) intelectual(es)  
+    <t>Autor es/as intelectual(es) del estudio 
 Tabla_379116</t>
   </si>
   <si>
@@ -223,6 +231,9 @@
     <t>49172</t>
   </si>
   <si>
+    <t>77200</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -236,6 +247,15 @@
   </si>
   <si>
     <t>Denominación de la persona física o moral, en su caso</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
   </si>
   <si>
     <t>Dirección de Investigación, Innovación y Posgrado (UPP)</t>
@@ -247,8 +267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -261,12 +281,16 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -288,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,11 +335,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -329,8 +364,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -397,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +466,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,6 +518,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +739,7 @@
     <col min="18" max="18" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.5703125" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -678,38 +748,38 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -842,29 +912,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -931,41 +1001,41 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+        <v>45107</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S8" s="4">
-        <v>45026</v>
+        <v>45117</v>
       </c>
       <c r="T8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>73</v>
+        <v>45117</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -979,16 +1049,17 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D105" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1021,12 +1092,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD94"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1035,9 +1104,10 @@
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -1050,8 +1120,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>63</v>
       </c>
@@ -1064,22 +1137,56 @@
       <c r="E2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F201" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Hidden_1_Tabla_3791165</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
